--- a/data/steel/factories/IBF_factory-0C.xlsx
+++ b/data/steel/factories/IBF_factory-0C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0096C187-6EA6-F843-A1B8-A370DFE8FBEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF2A98D-E1D2-8A43-A209-EBB84C74E71C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="460" windowWidth="17060" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="53">
   <si>
     <t>Inflow</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>hot metal</t>
-  </si>
-  <si>
-    <t>meta-process</t>
   </si>
   <si>
     <t>CaO</t>
@@ -201,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,14 +222,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,14 +255,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -606,117 +594,117 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -732,55 +720,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -788,508 +775,505 @@
       <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
         <v>23</v>
       </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F21" s="6"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F24" s="6"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H25" s="1"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H26" s="1"/>
-      <c r="I26" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="5"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="5"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+      <c r="H26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1327,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1338,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1349,21 +1333,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
